--- a/solution tracker.xlsx
+++ b/solution tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldcur\Documents\_Documents\Coding Projects\Leetcode Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE895E4-2F38-4A1A-A29C-31CFE9BACD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE524AB5-5471-4BD3-AE15-0FEC0BFA26CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Problem</t>
   </si>
@@ -70,13 +70,40 @@
   </si>
   <si>
     <t>24-9-5</t>
+  </si>
+  <si>
+    <t>323 - connected  components</t>
+  </si>
+  <si>
+    <t>24-10-1</t>
+  </si>
+  <si>
+    <t>24-10-2</t>
+  </si>
+  <si>
+    <t>24-10-3</t>
+  </si>
+  <si>
+    <t>684 - redundant connection</t>
+  </si>
+  <si>
+    <t>127 - word ladder</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>graph bfs with a trick</t>
+  </si>
+  <si>
+    <t>graph union find</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +115,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,9 +163,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,77 +450,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="22.21875" customWidth="1"/>
+    <col min="1" max="5" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E9" t="s">
         <v>8</v>
       </c>
     </row>
